--- a/biology/Botanique/Blitum/Blitum.xlsx
+++ b/biology/Botanique/Blitum/Blitum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blitum est un genre de plantes à fleurs de la famille des Amaranthacées, sous-famille des Chenopodioideae. Il est étroitement lié au genre Spinacia (épinards). Ses douze espèces étaient traditionnellement placées dans les genres Chenopodium, Monolepis ou Scleroblitum. Les espèces du genre Blitum se trouvent en Asie, en Europe, en Afrique du Nord, dans les Amériques et en Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Blitum sont des herbes annuelles ou vivaces non aromatiques. Elles sont glabres ou parfois couvertes de poils vésiculaires stipités, les jeunes plants peuvent être collants.
 Les feuilles alternes sont constituées d'un pétiole et d'une simple lame. Les feuilles forment une rosette. Le limbe de la feuille est fin ou légèrement charnu.
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (19 janvier 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (19 janvier 2024) :
 Blitum asiaticum (Fisch. &amp; C.A.Mey.) S.Fuentes, Uotila &amp; Borsch
 Blitum bonus-henricus (L.) Rchb.
 Blitum californicum S. Watson
@@ -559,7 +575,7 @@
 Blitum spathulatum (A. Gray) S. Fuentes, Uotila &amp; Borsch
 Blitum virgatum L.
 Blitum × tkalcsicsii (H.Melzer) Mosyakin
-Selon NCBI  (19 janvier 2024)[2] :
+Selon NCBI  (19 janvier 2024) :
 Blitum asiaticum (Fisch. &amp; C.A.Mey.) S.Fuentes, Uotila &amp; Borsch, 2012
 Blitum atriplicinum F.Muell., 1855
 Blitum bonus-henricus (L.) Rchb., 1832
@@ -571,7 +587,7 @@
 Blitum petiolare Link, 1821
 Blitum spathulatum (A.Gray) S.Fuentes, Uotila &amp; Borsch, 2012
 Blitum virgatum L., 1753
-Selon Tropicos                                           (19 janvier 2024)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 janvier 2024) (Attention liste brute contenant possiblement des synonymes) :
 Blitum acuminatum Schur
 Blitum ambrosioides (L.) Beck
 Blitum antarcticum Hook. f.
